--- a/biology/Botanique/Aristoloche_pistoloche/Aristoloche_pistoloche.xlsx
+++ b/biology/Botanique/Aristoloche_pistoloche/Aristoloche_pistoloche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aristolochia pistolochia
 L'aristoloche pistoloche (Aristolochia pistolochia) est une petite plante herbacée méditerranéenne appartenant au genre Aristolochia et à la famille des Aristolochiaceae. Elle pousse sur les sols rocheux, surtout calcaires, et se reconnaît à ses curieuses fleurs marron, très sombres, portant une langue très développée.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison a lieu de mars à juillet[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu de mars à juillet.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente dans tout l'ouest du bassin méditerranéen, y compris le nord de l'Afrique, la Sardaigne et la Corse[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente dans tout l'ouest du bassin méditerranéen, y compris le nord de l'Afrique, la Sardaigne et la Corse.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Usages et propriétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce serait la plante nommée Petite aristoloche dont les racines était un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle ; en poudre, elle entrait dans la composition de l'opiat antiscorbutique[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce serait la plante nommée Petite aristoloche dont les racines était un des multiples constituants de la thériaque de la pharmacopée maritime occidentale au XVIIIe siècle ; en poudre, elle entrait dans la composition de l'opiat antiscorbutique.
 </t>
         </is>
       </c>
